--- a/Finanse_YevhenPyrih.xlsx
+++ b/Finanse_YevhenPyrih.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-20\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivaldi\Завантаження\Bussiness data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C4DF2-031B-42BA-AB66-66E0D5F773B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86757665-C18E-457E-A90E-4667D43F2434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="2" r:id="rId1"/>
@@ -255,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₴&quot;_-;\-* #,##0.00\ &quot;₴&quot;_-;_-* &quot;-&quot;??\ &quot;₴&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₴&quot;_-;\-* #,##0.00\ &quot;₴&quot;_-;_-* &quot;-&quot;??\ &quot;₴&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -546,14 +546,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -569,19 +569,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -589,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -598,507 +596,507 @@
   </cellStyles>
   <dxfs count="196">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1192,43 +1190,43 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1268,79 +1266,79 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1472,7 +1470,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -3447,7 +3445,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E8D8DDE-FD22-4CA1-A87C-2B79121B6E96}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3609,7 +3607,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Amount" fld="0" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4497,9 +4495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4537,7 +4535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4643,7 +4641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4785,7 +4783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4799,18 +4797,18 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>-1500</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4500</v>
       </c>
@@ -4883,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-2000</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-45</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-150</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-120</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>500</v>
       </c>
@@ -5008,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>-500</v>
       </c>
@@ -5033,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>250</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>-25</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>-80</v>
       </c>
@@ -5108,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>150</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>-80</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>-60</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>-100</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>-50</v>
       </c>
@@ -5233,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>150</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5.5</v>
       </c>
@@ -5283,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -5308,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>-100</v>
       </c>
@@ -5333,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-5.5</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4500</v>
       </c>
@@ -5433,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-2000</v>
       </c>
@@ -5458,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-150</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -5508,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>-300</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>-500</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>-200</v>
       </c>
@@ -5583,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>175</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>-175</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>-100</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>-80</v>
       </c>
@@ -5683,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>150</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>100</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>-200</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1000</v>
       </c>
@@ -5783,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>-250</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>-100</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>-50</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>15</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>-150</v>
       </c>
@@ -5908,7 +5906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>-25</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>-135.5</v>
       </c>
@@ -5983,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>-82.5</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>-200</v>
       </c>
@@ -6033,7 +6031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>150</v>
       </c>
@@ -6058,7 +6056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>-24.49</v>
       </c>
@@ -6083,7 +6081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4500</v>
       </c>
@@ -6108,7 +6106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>-2000</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>-200</v>
       </c>
@@ -6158,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>-469.9</v>
       </c>
@@ -6183,7 +6181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>-9.5</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>-23</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>-150</v>
       </c>
@@ -6258,7 +6256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>-300</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -6308,7 +6306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>-79.5</v>
       </c>
@@ -6333,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>-200</v>
       </c>
@@ -6358,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>-23.5</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>-82.5</v>
       </c>
@@ -6408,7 +6406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>150</v>
       </c>
@@ -6433,7 +6431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>-99.97</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4500</v>
       </c>
@@ -6483,7 +6481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>-2000</v>
       </c>
@@ -6508,7 +6506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>-149</v>
       </c>
@@ -6533,7 +6531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>104.5</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>-104.5</v>
       </c>
@@ -6583,7 +6581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>-49</v>
       </c>
@@ -6608,7 +6606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>-9.99</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>-100</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>-57.9</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>-159.9</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>-1000</v>
       </c>
@@ -6733,7 +6731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>50</v>
       </c>
@@ -6758,7 +6756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>-69.900000000000006</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>-32.5</v>
       </c>
@@ -6808,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>-139</v>
       </c>
@@ -6833,7 +6831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>-250</v>
       </c>
@@ -6858,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>-80</v>
       </c>
@@ -6883,7 +6881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>4500</v>
       </c>
@@ -6908,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>-2000</v>
       </c>
@@ -6933,7 +6931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>-250</v>
       </c>
@@ -6958,7 +6956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>91.39</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>-91.39</v>
       </c>
@@ -7008,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>-250</v>
       </c>
@@ -7033,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>-250</v>
       </c>
@@ -7058,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>-50</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>-80</v>
       </c>
@@ -7108,7 +7106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>-250</v>
       </c>
@@ -7133,7 +7131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>-80</v>
       </c>
@@ -7158,7 +7156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>4500</v>
       </c>
@@ -7183,7 +7181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>-2000</v>
       </c>
@@ -7208,7 +7206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>-250</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1000</v>
       </c>
@@ -7258,7 +7256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>-1000</v>
       </c>
@@ -7283,7 +7281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>-100</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>-250</v>
       </c>
@@ -7333,7 +7331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>-250</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>-300</v>
       </c>
@@ -7383,7 +7381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>-50</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>400</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>-200</v>
       </c>
@@ -7458,7 +7456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>-30</v>
       </c>
@@ -7483,7 +7481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>-100</v>
       </c>
@@ -7508,7 +7506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>4500</v>
       </c>
@@ -7533,7 +7531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>-2000</v>
       </c>
@@ -7558,7 +7556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>-40</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>1300</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>-1300</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>-300</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>800</v>
       </c>
@@ -7683,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>-600</v>
       </c>
@@ -7708,7 +7706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>120</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>-90</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>-50</v>
       </c>
@@ -7783,7 +7781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>250</v>
       </c>
@@ -7808,7 +7806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -7833,7 +7831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>-45</v>
       </c>
@@ -7858,7 +7856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>-600</v>
       </c>
@@ -7883,7 +7881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>-1020</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>-200</v>
       </c>
@@ -7933,8 +7931,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="36">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="34">
         <v>1020</v>
       </c>
       <c r="B126" t="s">
@@ -7957,7 +7955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>-70</v>
       </c>
@@ -7982,7 +7980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>4500</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>-2000</v>
       </c>
@@ -8032,7 +8030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>-100</v>
       </c>
@@ -8057,7 +8055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>135</v>
       </c>
@@ -8082,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>-135</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>-400</v>
       </c>
@@ -8132,7 +8130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>-32</v>
       </c>
@@ -8157,7 +8155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>200</v>
       </c>
@@ -8182,7 +8180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>-150</v>
       </c>
@@ -8207,7 +8205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>-47.5</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>-90</v>
       </c>
@@ -8257,7 +8255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>-300</v>
       </c>
@@ -8282,7 +8280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>500</v>
       </c>
@@ -8307,7 +8305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>200</v>
       </c>
@@ -8332,7 +8330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>-150</v>
       </c>
@@ -8357,7 +8355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>-20</v>
       </c>
@@ -8382,7 +8380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>-40</v>
       </c>
@@ -8407,7 +8405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>-500</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>4500</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>-20</v>
       </c>
@@ -8482,7 +8480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>-2000</v>
       </c>
@@ -8507,7 +8505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>102</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>-102</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>-18.5</v>
       </c>
@@ -8582,7 +8580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>-150</v>
       </c>
@@ -8607,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>-40</v>
       </c>
@@ -8632,7 +8630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>-600</v>
       </c>
@@ -8657,7 +8655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>4500</v>
       </c>
@@ -8682,7 +8680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>-40</v>
       </c>
@@ -8707,7 +8705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>-2000</v>
       </c>
@@ -8732,7 +8730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>20</v>
       </c>
@@ -8757,7 +8755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>-20</v>
       </c>
@@ -8782,7 +8780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>4500</v>
       </c>
@@ -8807,7 +8805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>-2000</v>
       </c>
@@ -8832,7 +8830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>-82</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>-200</v>
       </c>
@@ -8882,7 +8880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>-12</v>
       </c>
@@ -8907,7 +8905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>-90</v>
       </c>
@@ -8932,7 +8930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>40</v>
       </c>
@@ -8957,7 +8955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>-40</v>
       </c>
@@ -8982,7 +8980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>-28</v>
       </c>
@@ -9007,7 +9005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>-63</v>
       </c>
@@ -9032,7 +9030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>-15</v>
       </c>
@@ -9057,7 +9055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>-44</v>
       </c>
@@ -9082,7 +9080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>-107</v>
       </c>
@@ -9107,7 +9105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>-169</v>
       </c>
@@ -9132,7 +9130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>-51</v>
       </c>
@@ -9157,7 +9155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>-80</v>
       </c>
@@ -9182,7 +9180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>-70</v>
       </c>
@@ -9207,7 +9205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>-35</v>
       </c>
@@ -9232,7 +9230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>-11</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>-80</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>-58</v>
       </c>
@@ -9307,7 +9305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>-52</v>
       </c>
@@ -9332,7 +9330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>-44</v>
       </c>
@@ -9357,7 +9355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>-48</v>
       </c>
@@ -9382,7 +9380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>-65</v>
       </c>
@@ -9407,7 +9405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>400</v>
       </c>
@@ -9432,7 +9430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>-96</v>
       </c>
@@ -9457,7 +9455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>-50</v>
       </c>
@@ -9482,7 +9480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>-50</v>
       </c>
@@ -9507,7 +9505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>-5</v>
       </c>
@@ -9532,7 +9530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>-100</v>
       </c>
@@ -9557,7 +9555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>-60</v>
       </c>
@@ -9582,7 +9580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>-5</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>-100</v>
       </c>
@@ -9632,7 +9630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>-60</v>
       </c>
@@ -9657,7 +9655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>-150</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>-150</v>
       </c>
@@ -9707,7 +9705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>-100</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>-100</v>
       </c>
@@ -9757,7 +9755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>4500</v>
       </c>
@@ -9782,7 +9780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>-2000</v>
       </c>
@@ -9807,7 +9805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>-50</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>-100</v>
       </c>
@@ -9857,7 +9855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>-100</v>
       </c>
@@ -9882,7 +9880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>500</v>
       </c>
@@ -9907,7 +9905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>-100</v>
       </c>
@@ -9932,7 +9930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>1500</v>
       </c>
@@ -9957,7 +9955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>-500</v>
       </c>
@@ -9982,7 +9980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>-300</v>
       </c>
@@ -10007,7 +10005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
     </row>
   </sheetData>
@@ -10045,20 +10043,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10087,7 +10085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10155,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -10189,7 +10187,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10223,7 +10221,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -10291,7 +10289,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10325,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -10349,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -10358,7 +10356,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10375,8 +10373,8 @@
         <v>-3210</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -10384,7 +10382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -10393,7 +10391,7 @@
         <v>-3210</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -10402,7 +10400,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -10411,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -10440,20 +10438,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10482,7 +10480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -10516,7 +10514,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10550,7 +10548,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -10584,7 +10582,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10618,7 +10616,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10652,7 +10650,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10720,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -10744,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -10753,7 +10751,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10770,8 +10768,8 @@
         <v>-3730</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -10788,7 +10786,7 @@
         <v>-3730</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -10797,7 +10795,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -10806,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -10835,20 +10833,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10877,7 +10875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10945,7 +10943,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11013,7 +11011,7 @@
         <v>-165</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11047,7 +11045,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11081,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11115,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -11139,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11165,8 +11163,8 @@
         <v>-3005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11183,7 +11181,7 @@
         <v>-3005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -11192,7 +11190,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -11201,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -11230,20 +11228,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11272,7 +11270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -11306,7 +11304,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11340,7 +11338,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -11374,7 +11372,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11408,7 +11406,7 @@
         <v>-749.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11476,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -11543,7 +11541,7 @@
         <v>-290</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11560,8 +11558,8 @@
         <v>-3989.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11569,7 +11567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11578,7 +11576,7 @@
         <v>-3989.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -11587,7 +11585,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -11596,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -11625,20 +11623,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11667,7 +11665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -11701,7 +11699,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11735,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -11769,7 +11767,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11803,7 +11801,7 @@
         <v>-538.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11837,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11871,7 +11869,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11905,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -11929,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -11938,7 +11936,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11955,8 +11953,8 @@
         <v>-2748.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11964,7 +11962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11973,7 +11971,7 @@
         <v>-2748.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -11991,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -12020,20 +12018,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12096,7 +12094,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12130,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -12164,7 +12162,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12198,7 +12196,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12232,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12266,7 +12264,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12300,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -12333,7 +12331,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -12350,8 +12348,8 @@
         <v>-2830</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -12359,7 +12357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12371,7 +12369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -12380,7 +12378,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -12389,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -12418,20 +12416,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12460,7 +12458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12494,7 +12492,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12528,7 +12526,7 @@
         <v>-158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -12562,7 +12560,7 @@
         <v>-214</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12596,7 +12594,7 @@
         <v>-506</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12630,7 +12628,7 @@
         <v>-133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12664,7 +12662,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12698,7 +12696,7 @@
         <v>-234</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -12722,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -12731,7 +12729,7 @@
         <v>-208</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -12748,8 +12746,8 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -12757,7 +12755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12766,7 +12764,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -12813,20 +12811,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12889,7 +12887,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12923,7 +12921,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -12957,7 +12955,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12991,7 +12989,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13025,7 +13023,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -13059,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -13093,7 +13091,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -13117,7 +13115,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -13126,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -13143,8 +13141,8 @@
         <v>-4080</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -13152,7 +13150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -13161,7 +13159,7 @@
         <v>-4080</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -13170,7 +13168,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -13179,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -13208,24 +13206,24 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
@@ -13272,7 +13270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -13332,7 +13330,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
@@ -13392,7 +13390,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
@@ -13452,7 +13450,7 @@
         <v>-1326.9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>20</v>
       </c>
@@ -13512,7 +13510,7 @@
         <v>-3646.9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
@@ -13572,7 +13570,7 @@
         <v>640.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>29</v>
       </c>
@@ -13632,7 +13630,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
@@ -13692,7 +13690,7 @@
         <v>-8486.75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -13752,7 +13750,7 @@
         <v>-1326</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13810,7 @@
         <v>-599</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
@@ -13872,7 +13870,7 @@
         <v>-2599</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>30</v>
       </c>
@@ -13932,7 +13930,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -13992,7 +13990,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
@@ -14052,7 +14050,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
@@ -14112,7 +14110,7 @@
         <v>-518.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>31</v>
       </c>
@@ -14172,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
@@ -14232,11 +14230,11 @@
         <v>-1373</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="4">
         <f>SUBTOTAL(109,Table9[1])</f>
         <v>845.5</v>
@@ -14311,19 +14309,19 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -14366,11 +14364,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="4">
@@ -14426,11 +14424,11 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="4">
@@ -14486,11 +14484,11 @@
         <v>-1373</v>
       </c>
     </row>
-    <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4">
@@ -14546,11 +14544,11 @@
         <v>-1326.9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="4">
@@ -14606,11 +14604,11 @@
         <v>-3646.9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4">
@@ -14666,11 +14664,11 @@
         <v>-518.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4">
@@ -14726,11 +14724,11 @@
         <v>-599</v>
       </c>
     </row>
-    <row r="8" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4">
@@ -14786,11 +14784,11 @@
         <v>-8486.75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4">
@@ -14846,11 +14844,11 @@
         <v>-1326</v>
       </c>
     </row>
-    <row r="10" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="4">
@@ -14906,9 +14904,9 @@
         <v>-2599</v>
       </c>
     </row>
-    <row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="4">
@@ -14964,11 +14962,11 @@
         <v>-43876.05</v>
       </c>
     </row>
-    <row r="12" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4">
@@ -15024,11 +15022,11 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4">
@@ -15084,11 +15082,11 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="14" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="4">
@@ -15144,11 +15142,11 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:15" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="4">
@@ -15204,11 +15202,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="4">
@@ -15264,11 +15262,11 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="17" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="4">
@@ -15324,9 +15322,9 @@
         <v>640.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="4">
@@ -15382,11 +15380,11 @@
         <v>62695.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:15" ht="15.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="4">
@@ -15442,9 +15440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="1:15" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="4">
@@ -15500,9 +15498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="32" t="s">
+    <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="4">
@@ -15580,24 +15578,24 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B4">
@@ -15640,8 +15638,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="20">
@@ -15684,8 +15682,8 @@
         <v>-43876.05</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="20">
@@ -15728,8 +15726,8 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="20">
@@ -15764,8 +15762,8 @@
         <v>-1326.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="20">
@@ -15808,8 +15806,8 @@
         <v>-3646.9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="20">
@@ -15852,8 +15850,8 @@
         <v>-8486.75</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="20">
@@ -15890,8 +15888,8 @@
         <v>-1326</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="20">
@@ -15928,8 +15926,8 @@
         <v>-599</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="20">
@@ -15960,8 +15958,8 @@
         <v>-2599</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="20">
@@ -15990,8 +15988,8 @@
         <v>-518.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="20">
@@ -16032,8 +16030,8 @@
         <v>-1373</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="20">
@@ -16076,8 +16074,8 @@
         <v>62695.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="20">
@@ -16100,8 +16098,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="20">
@@ -16130,8 +16128,8 @@
         <v>640.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="20"/>
@@ -16162,8 +16160,8 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="20">
@@ -16186,8 +16184,8 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="20">
@@ -16230,8 +16228,8 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="20"/>
@@ -16254,8 +16252,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="20"/>
@@ -16292,8 +16290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="20"/>
@@ -16330,8 +16328,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="20">
@@ -16387,17 +16385,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16420,7 +16418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -16443,7 +16441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -16466,7 +16464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -16485,7 +16483,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -16502,7 +16500,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -16519,7 +16517,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -16536,7 +16534,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -16553,7 +16551,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -16561,7 +16559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -16569,7 +16567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -16577,7 +16575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -16585,7 +16583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -16593,7 +16591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -16601,7 +16599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -16609,7 +16607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -16617,7 +16615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -16650,20 +16648,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16692,7 +16690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -16758,7 +16756,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -16791,7 +16789,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -16824,7 +16822,7 @@
         <v>-1715</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16857,7 +16855,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -16890,7 +16888,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16923,7 +16921,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -16947,7 +16945,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -16956,7 +16954,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -16973,8 +16971,8 @@
         <v>-4810</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -16982,7 +16980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -16991,7 +16989,7 @@
         <v>-4810</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -17000,7 +16998,7 @@
         <v>5655.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -17009,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17038,20 +17036,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17080,7 +17078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -17114,7 +17112,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -17148,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -17182,7 +17180,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17216,7 +17214,7 @@
         <v>-405.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -17250,7 +17248,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -17284,7 +17282,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -17318,7 +17316,7 @@
         <v>-765</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -17342,7 +17340,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -17351,7 +17349,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -17368,8 +17366,8 @@
         <v>-4100.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -17377,7 +17375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17386,7 +17384,7 @@
         <v>-4100.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -17395,7 +17393,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -17404,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17433,20 +17431,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17475,7 +17473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -17509,7 +17507,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -17543,7 +17541,7 @@
         <v>-469.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -17577,7 +17575,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17611,7 +17609,7 @@
         <v>-734.99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -17645,7 +17643,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -17679,7 +17677,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -17713,7 +17711,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -17737,7 +17735,7 @@
         <v>-79.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -17746,7 +17744,7 @@
         <v>-82.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -17763,8 +17761,8 @@
         <v>-3899.3900000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -17772,7 +17770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17781,7 +17779,7 @@
         <v>-3899.39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -17790,7 +17788,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -17799,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17828,20 +17826,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17870,7 +17868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -17904,7 +17902,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -17938,7 +17936,7 @@
         <v>-149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -17972,7 +17970,7 @@
         <v>-1057.9000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -18006,7 +18004,7 @@
         <v>-372.26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -18040,7 +18038,7 @@
         <v>-23.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -18074,7 +18072,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -18108,7 +18106,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -18132,7 +18130,7 @@
         <v>-139</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>-82.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -18158,8 +18156,8 @@
         <v>-3973.16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -18167,7 +18165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -18176,7 +18174,7 @@
         <v>-3973.16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -18185,7 +18183,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -18194,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
